--- a/workfile/锐安项目文档/20191021/日报问题反馈.xlsx
+++ b/workfile/锐安项目文档/20191021/日报问题反馈.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11700" windowHeight="5025"/>
   </bookViews>
   <sheets>
     <sheet name="日报问题列表" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,10 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目前未找到解决ios复制文字失效的方案，继续寻求解决方案。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弹窗放在了循环逻辑中，需要弹窗逻辑放到循环之外来解决问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,10 +176,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>处理中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选择发票池，当选择一个发票后，草稿及提交，pc端的发票池必须同步，显示已经被选择了，不能再让Pc端再次选择，同时发票池需要更新发票被用在了哪个日报里。移动端如果删除了日报，则pc端的发票可以再次选择</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,11 +196,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暂时未能复现问题，继续尝试重现客户问题，检查发现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已修改相关问题，并同步至正式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写了一段文字，如果想增加字符，光标位置永远在已写字段的开头，无法精确控制在哪里补文字目前使用的input框类型默认的光标在前是mui默认的，将测试是否可以进行调整</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -224,16 +216,52 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>目前使用的默认的input框在ios中复制被禁止了，将测试是否可以进行调整</t>
+      <t>目前存在选择picker时，picker未点击确认，在下拉时该picker未销毁依然存在</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>写了一段文字，如果想增加字符，光标位置永远在已写字段的开头，无法精确控制在哪里补文字目前使用的input框类型默认的光标在前是mui默认的，将测试是否可以进行调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选择了发票，开票单位，报销单号，发票类型不允许修改。当输入花销金额后，点击提交需要判断是否有充足预算。如果预算不足，要显示预算不足。如果预算足，要扣PC端预算。如果移动端驳回或自己取回了日报，要归还预算给PC端的预算系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日报-基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前存在ios系统中选择picker时，picker未点击确认的情况下，在下拉时该picker未销毁依然存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前未找到解决该问题的方法，继续寻求解决方案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田金华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈子瑶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时未能复现问题，继续尝试重现客户问题，检查发现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前未找到解决ios复制文字失效的方案，继续寻求解决方案。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -287,7 +315,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +331,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,12 +370,6 @@
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -353,9 +381,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -400,6 +425,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -704,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -725,585 +759,611 @@
     <col min="11" max="11" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" s="27" customFormat="1">
+      <c r="A1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="27">
-      <c r="A2" s="7">
+    <row r="2" spans="1:15" s="16" customFormat="1" ht="27">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="12">
+        <v>43749</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="12">
+        <v>43761</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="1:15" s="16" customFormat="1" ht="40.5">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="12">
+        <v>43749</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="12">
+        <v>43761</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="1:15" s="16" customFormat="1" ht="67.5">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="14">
+        <v>43749</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="14">
+        <v>43752</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" s="16" customFormat="1" ht="27">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="14">
+        <v>43749</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="14">
+        <v>43752</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" s="16" customFormat="1" ht="27">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="14">
+        <v>43749</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="14">
+        <v>43754</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" s="16" customFormat="1">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="14">
+        <v>43749</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="14">
+        <v>43749</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="16" customFormat="1" ht="27">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="14">
+        <v>43749</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="14">
+        <v>43753</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" s="16" customFormat="1" ht="54">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="14">
+        <v>43749</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="14">
+        <v>43752</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" s="24" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="22">
+        <v>43749</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="22">
+        <v>43761</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="23"/>
+    </row>
+    <row r="11" spans="1:15" s="24" customFormat="1" ht="40.5">
+      <c r="A11" s="25">
+        <v>10</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="22">
+        <v>43749</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="22">
+        <v>43761</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="23"/>
+    </row>
+    <row r="12" spans="1:15" s="16" customFormat="1">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="17">
+        <v>43759</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="17">
+        <v>43759</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" spans="1:15" s="9" customFormat="1" ht="27">
+      <c r="A13" s="5">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G13" s="7">
         <v>43749</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="10">
-        <v>43761</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" ht="40.5">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="10">
-        <v>43749</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="10">
-        <v>43761</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" s="19" customFormat="1" ht="67.5">
-      <c r="A4" s="14">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="17">
-        <v>43749</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="17">
-        <v>43752</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="1:11" s="19" customFormat="1" ht="27">
-      <c r="A5" s="14">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="17">
-        <v>43749</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="17">
-        <v>43752</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="18"/>
-    </row>
-    <row r="6" spans="1:11" s="19" customFormat="1" ht="27">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="17">
-        <v>43749</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="17">
-        <v>43754</v>
-      </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-    </row>
-    <row r="7" spans="1:11" s="19" customFormat="1">
-      <c r="A7" s="14">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="17">
-        <v>43749</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="17">
-        <v>43749</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="19" customFormat="1" ht="27">
-      <c r="A8" s="14">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="17">
-        <v>43749</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="17">
-        <v>43753</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="18"/>
-    </row>
-    <row r="9" spans="1:11" s="19" customFormat="1" ht="54">
-      <c r="A9" s="14">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="17">
-        <v>43749</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="17">
-        <v>43752</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="1:11" s="27" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A10" s="22">
-        <v>9</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="23" t="s">
+      <c r="I13" s="7"/>
+      <c r="J13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="25">
-        <v>43749</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="25">
-        <v>43761</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="26"/>
-    </row>
-    <row r="11" spans="1:11" s="27" customFormat="1" ht="40.5">
-      <c r="A11" s="28">
-        <v>10</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="25">
-        <v>43749</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="25">
-        <v>43761</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="26"/>
-    </row>
-    <row r="12" spans="1:11" s="19" customFormat="1">
-      <c r="A12" s="14">
-        <v>11</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="20">
-        <v>43759</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="20">
-        <v>43759</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1337,31 +1397,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="13" t="s">
-        <v>34</v>
+      <c r="A4" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
